--- a/kjpt-platform/src/main/webapp/data/kyptlw_template.xlsx
+++ b/kjpt-platform/src/main/webapp/data/kyptlw_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB48DC7-5737-4F27-88A9-FDB5E987CDBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="615" windowWidth="20580" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="615" windowWidth="20580" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>论文题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,13 +42,16 @@
   <si>
     <t>发表时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,27 +181,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,24 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,20 +390,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +418,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/kjpt-platform/src/main/webapp/data/kyptlw_template.xlsx
+++ b/kjpt-platform/src/main/webapp/data/kyptlw_template.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouhu/Desktop/project/kjpt/kjpt-platform/src/main/webapp/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="615" windowWidth="20580" windowHeight="11760"/>
+    <workbookView xWindow="2600" yWindow="620" windowWidth="20580" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -22,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>论文题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,25 +54,22 @@
     <t>发表时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>密级</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -149,12 +157,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -181,14 +189,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -215,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,20 +400,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,9 +429,6 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
